--- a/data/trans_camb/P17_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.812438250533999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.60024132840994</v>
+        <v>-8.600241328409938</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.133853899677534</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.377116441390634</v>
+        <v>1.247041157393786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.414597487077302</v>
+        <v>-0.5713563182922418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.22074860715527</v>
+        <v>-14.21041048292493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.050135748719333</v>
+        <v>-8.88079841654967</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-19.84756618845139</v>
+        <v>-18.5033472129461</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-29.06883765589887</v>
+        <v>-29.04054341601878</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9875366925801842</v>
+        <v>-0.7286848092962832</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.212033478285594</v>
+        <v>-8.031441790972604</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.40793805546975</v>
+        <v>-19.75149485104061</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.99144071365875</v>
+        <v>14.48390912778912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.30111697142674</v>
+        <v>13.32021220393126</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.207416883861854</v>
+        <v>-2.900205332751801</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.406589071837693</v>
+        <v>10.21252690002401</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.662368427461621</v>
+        <v>-3.397662800843642</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-15.49061114266602</v>
+        <v>-14.66314116617835</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.12103623097612</v>
+        <v>10.24120854029008</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.619642367370559</v>
+        <v>2.418752898160034</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-10.86936599656671</v>
+        <v>-10.90913709149951</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3132920231908269</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4635553772049754</v>
+        <v>-0.4635553772049752</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.03094748472762645</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06122545490376524</v>
+        <v>0.05031583561496244</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05947834944985753</v>
+        <v>-0.03076389484272191</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6420649258511808</v>
+        <v>-0.6472169833509853</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1968835617636297</v>
+        <v>-0.2130133983731793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4709090250495332</v>
+        <v>-0.4567022890739365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6957771783589513</v>
+        <v>-0.7041024949300837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03516984810191898</v>
+        <v>-0.0238510252712585</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2749055904814214</v>
+        <v>-0.2735955292630204</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6413101039641921</v>
+        <v>-0.6433713572697968</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9981896714878853</v>
+        <v>0.8912846515078802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8919318103284033</v>
+        <v>0.8686588469771688</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2009804333170881</v>
+        <v>-0.1922043088357594</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2845993693479906</v>
+        <v>0.3187965219959439</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09527363899608279</v>
+        <v>-0.1049110067138019</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4737956971795527</v>
+        <v>-0.4594339346516702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4062727640867868</v>
+        <v>0.4158776177221933</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1018915785105936</v>
+        <v>0.09428642497270792</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4333142942816068</v>
+        <v>-0.4371018420915733</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.791804092561411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.772180439351862</v>
+        <v>-8.772180439351866</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-12.74185821169473</v>
@@ -869,7 +869,7 @@
         <v>-11.60013603493642</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-10.22052311184395</v>
+        <v>-10.22052311184394</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-9.027699799030115</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.05471259768007</v>
+        <v>-11.17887279602795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.236294863226423</v>
+        <v>-7.531689670421324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.51865784237773</v>
+        <v>-14.32558106097484</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.87405739705953</v>
+        <v>-18.13621772405972</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-17.77809331055973</v>
+        <v>-17.66074088589985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.69993727475974</v>
+        <v>-15.6176325145618</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-13.51062183466947</v>
+        <v>-13.146888416786</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.11360933656394</v>
+        <v>-10.56939290991333</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-13.42313848550786</v>
+        <v>-13.38136622123685</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9179832284540952</v>
+        <v>0.4749470141427636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.157850413539681</v>
+        <v>4.176955040708226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.928691189459503</v>
+        <v>-1.588417344351451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-6.976454965937952</v>
+        <v>-6.654727585599594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.766852533675566</v>
+        <v>-5.832816499155721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.431371808677312</v>
+        <v>-4.540631091473121</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-4.805002107577348</v>
+        <v>-4.680042008667247</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.598690291511594</v>
+        <v>-2.403778787811</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.355888909626678</v>
+        <v>-5.397721595252407</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.05791606460939149</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2835411366677242</v>
+        <v>-0.2835411366677243</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2995225816880882</v>
@@ -974,7 +974,7 @@
         <v>-0.2726841435049255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2402536127621143</v>
+        <v>-0.2402536127621142</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2453011030307691</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3236806594149829</v>
+        <v>-0.3294335690187292</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2141312347145785</v>
+        <v>-0.2235017011081506</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4296129321822781</v>
+        <v>-0.4314148301045189</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4166311865819378</v>
+        <v>-0.4067651733032654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3875155620397803</v>
+        <v>-0.388409851232737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3488228631618643</v>
+        <v>-0.3449070620699757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3443114685379376</v>
+        <v>-0.3394989076785533</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2845619795220212</v>
+        <v>-0.2753365783422692</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3526275658390963</v>
+        <v>-0.342937120089459</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03240438054913052</v>
+        <v>0.01742204681770006</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1526778593081705</v>
+        <v>0.1484787590731101</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.09491645961632612</v>
+        <v>-0.05763946641146549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.175989093678459</v>
+        <v>-0.1674994155343854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.144251845654639</v>
+        <v>-0.1483081986161914</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1160355251711781</v>
+        <v>-0.1198445160925819</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1387711041999501</v>
+        <v>-0.1312062460609571</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.07197480652416402</v>
+        <v>-0.06955442360881355</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1512392150326052</v>
+        <v>-0.1541588741143624</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-7.207560670411334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.169930220523566</v>
+        <v>-4.169930220523568</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.079689136671783</v>
@@ -1083,7 +1083,7 @@
         <v>-0.1359553620462806</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4942116493759668</v>
+        <v>0.4942116493759724</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.285933250485868</v>
@@ -1092,7 +1092,7 @@
         <v>-3.572910020231751</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.638176712877598</v>
+        <v>-1.638176712877601</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.706945154538585</v>
+        <v>-6.595711279162017</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.76045814902819</v>
+        <v>-12.66738696125154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.683089781559165</v>
+        <v>-10.37938848717562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.324433578032307</v>
+        <v>0.5760104341314438</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.090588244164801</v>
+        <v>-5.77376302712698</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.028288298820321</v>
+        <v>-5.656655823411604</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5098286693933798</v>
+        <v>-0.3511009189957689</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.572370304751841</v>
+        <v>-7.056273637233073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.196781814938801</v>
+        <v>-5.634470962997052</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.108967458931948</v>
+        <v>6.130682778051446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.091630763984407</v>
+        <v>-1.739136045601322</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.312355456810008</v>
+        <v>1.354541413819718</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.00120824941239</v>
+        <v>14.61537391777676</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.990318992659676</v>
+        <v>6.283111314365525</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.327930090257006</v>
+        <v>5.640119234701952</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.395223125744094</v>
+        <v>8.959381647388007</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2164351678136529</v>
+        <v>0.2904260577475804</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.93870552551203</v>
+        <v>2.35547431919508</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4232453982773549</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2448683899699386</v>
+        <v>-0.2448683899699388</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3949053083077481</v>
@@ -1188,7 +1188,7 @@
         <v>-0.006644995030971442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02415523672566575</v>
+        <v>0.02415523672566603</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2281210978351284</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1901700536724412</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.08719283487376185</v>
+        <v>-0.08719283487376199</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2772794813299476</v>
+        <v>-0.3184827287420749</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6329204824024528</v>
+        <v>-0.6327525457151695</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4702895746167624</v>
+        <v>-0.4963491424357411</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05659692490313197</v>
+        <v>0.02716913010394497</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2669716795408267</v>
+        <v>-0.250468725411803</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2068300748687923</v>
+        <v>-0.2259190197667227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02732150655803029</v>
+        <v>-0.02804406332054517</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.363549490446451</v>
+        <v>-0.3452299097924885</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2857102875932543</v>
+        <v>-0.2666825962456466</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4531274689824206</v>
+        <v>0.4386308387157579</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1179391446393319</v>
+        <v>-0.1039746623633804</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09906080249558583</v>
+        <v>0.119374273928478</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8546934328276682</v>
+        <v>0.8343478371722837</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3558840812586415</v>
+        <v>0.3773833869639395</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3525109935753333</v>
+        <v>0.3339231732066398</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4912605999470336</v>
+        <v>0.525695110923323</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0131422375447651</v>
+        <v>0.01799034141393494</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1131549615237982</v>
+        <v>0.1358884093662479</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.674385691912176</v>
+        <v>9.549729871614685</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.21937498223071</v>
+        <v>11.87098131975851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.68245198055305</v>
+        <v>-12.68782916010147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.42293586987573</v>
+        <v>13.80724734805494</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>21.15636611461039</v>
+        <v>20.70174465314782</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.4928287588517</v>
+        <v>-12.0867965088575</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>14.11850778115992</v>
+        <v>14.32529402783124</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>18.43357084542682</v>
+        <v>18.59974749853907</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.28543904340977</v>
+        <v>-10.2061228359014</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.16991818312659</v>
+        <v>24.14455201713262</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.68543285988211</v>
+        <v>25.82952930653569</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.239201685459228</v>
+        <v>4.15061341388806</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.92203364911366</v>
+        <v>27.87709547299161</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>34.68605949026215</v>
+        <v>34.18725110686895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.212372183745424</v>
+        <v>0.9236440827756128</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>24.4580691647561</v>
+        <v>24.46137428435797</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>28.49185401874387</v>
+        <v>28.96001051676969</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.1051168297859505</v>
+        <v>0.1368994721764749</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2637755518339522</v>
+        <v>0.2735885834799755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3382182796712668</v>
+        <v>0.3269807690026761</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3676946120665984</v>
+        <v>-0.3718241897320386</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3940100241597828</v>
+        <v>0.3752737004611268</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5771110599206021</v>
+        <v>0.5503316897147463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.319813984459523</v>
+        <v>-0.3293443710454436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3987349973818898</v>
+        <v>0.4029989894542629</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5254738978041565</v>
+        <v>0.522614083789874</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2930806476376963</v>
+        <v>-0.292957261633196</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8459929513550905</v>
+        <v>0.8567622127084434</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9103240293447797</v>
+        <v>0.9201182561667969</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07792150270351526</v>
+        <v>0.1533543341671049</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.955585246293184</v>
+        <v>0.9358162583571713</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.187267294735443</v>
+        <v>1.126556946253733</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04094149104462549</v>
+        <v>0.03479683474297301</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8018274333428685</v>
+        <v>0.8077031186596242</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9435749726247681</v>
+        <v>0.9534623217808066</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.003235808528180052</v>
+        <v>0.004552874333218887</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.41920127640083</v>
+        <v>-14.21843068995902</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-29.7086418114743</v>
+        <v>-30.14645897709575</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-23.80421094918132</v>
+        <v>-25.11854061989395</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-15.95784276722217</v>
+        <v>-15.66269784200663</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-34.54217392457083</v>
+        <v>-35.13756730542153</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-29.4178889849087</v>
+        <v>-29.37955489662036</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-11.80715024558924</v>
+        <v>-12.14019088800682</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-29.82500755933793</v>
+        <v>-30.10792930673323</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-24.81392681575706</v>
+        <v>-24.52555235347008</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.758798105449343</v>
+        <v>2.261865389854036</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-17.20728205895101</v>
+        <v>-17.05575377487587</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.60226199159238</v>
+        <v>-11.15495555144288</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.383616462397347</v>
+        <v>0.9688561823556682</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-20.89210094363092</v>
+        <v>-21.29286426783252</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-16.20055375233597</v>
+        <v>-14.77019290691563</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05932254068840327</v>
+        <v>-0.3200055060487426</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-20.821702492633</v>
+        <v>-20.96657885621007</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-15.58175295489236</v>
+        <v>-15.27345494845247</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.9481363764771173</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.7707029902109227</v>
+        <v>-0.7707029902109228</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2408950510543955</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4957988469726147</v>
+        <v>-0.5143899776581281</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8420555550902681</v>
+        <v>-0.8516000415681385</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4868148093502008</v>
+        <v>-0.4876942076609521</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9866017174548463</v>
+        <v>-0.9884822153890894</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8534181199141726</v>
+        <v>-0.8451210407621189</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4108037266818066</v>
+        <v>-0.4137757856197729</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.9912556566602192</v>
+        <v>-0.9917360951569587</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8303795602005747</v>
+        <v>-0.825215063962447</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1568652171971631</v>
+        <v>0.1199161274262476</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.9083984932856645</v>
+        <v>-0.9091789521996059</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5334842448265726</v>
+        <v>-0.5523236013842563</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05935204206425785</v>
+        <v>0.04587945753348234</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.8337858259747208</v>
+        <v>-0.8501843786707363</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.655413879620491</v>
+        <v>-0.6333626273196911</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.002980973904281449</v>
+        <v>-0.009939829509157345</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.9019819243857838</v>
+        <v>-0.9089527378530078</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6624386282203145</v>
+        <v>-0.6567769978090565</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-8.691230333414069</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-17.08729024638237</v>
+        <v>-17.08729024638238</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.252447259256253</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.922691353238604</v>
+        <v>-3.197590323482459</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.26380594803551</v>
+        <v>-20.14455932300067</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-20.43334376031597</v>
+        <v>-20.37281670280729</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.764555808332916</v>
+        <v>3.670072817193456</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.35286952964468</v>
+        <v>-14.85840519754142</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.62874002778931</v>
+        <v>-22.73744110467174</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.967075094743114</v>
+        <v>2.130197177595282</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-15.83529168740536</v>
+        <v>-16.12110427645233</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.87092544557114</v>
+        <v>-19.75542044967889</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.608835598424161</v>
+        <v>10.01035983746042</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-9.980427630861314</v>
+        <v>-9.780819514724231</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-10.31382052782063</v>
+        <v>-10.8116898416333</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.98537558684648</v>
+        <v>18.45117158004961</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.730659678961713</v>
+        <v>-2.554980357994712</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-11.55179011494141</v>
+        <v>-12.07687912814281</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.44388312603066</v>
+        <v>12.26563491933621</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-7.552113133867266</v>
+        <v>-7.808284100782205</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-12.33248765219962</v>
+        <v>-12.41853865707636</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3933526841127904</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.7733463761497796</v>
+        <v>-0.7733463761497799</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3629801188931142</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1822623506582676</v>
+        <v>-0.1546883200981069</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9386903898679763</v>
+        <v>-0.9355429956501135</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.9350906777017516</v>
+        <v>-0.9377872689758772</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1310160619246504</v>
+        <v>0.1470350754072632</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5785698194246425</v>
+        <v>-0.5919979349170059</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8697834838205954</v>
+        <v>-0.8712154778312426</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09207737306327687</v>
+        <v>0.09027661735147903</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7097718159760844</v>
+        <v>-0.7035188513450716</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.8788903116272264</v>
+        <v>-0.8781030384902819</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6772954126464983</v>
+        <v>0.6970189909409907</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.6629351734770941</v>
+        <v>-0.6602800408517145</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.7006834701756193</v>
+        <v>-0.7311404017284009</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.021670811248672</v>
+        <v>0.9829460498799042</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.06544483320006084</v>
+        <v>-0.1395946074479488</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.6071149625228777</v>
+        <v>-0.6073801739594573</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7169752530699661</v>
+        <v>0.6854252669011813</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.4361443063546825</v>
+        <v>-0.4369526858822378</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.7068923038883349</v>
+        <v>-0.7148045148185548</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>3.794239771686705</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12.94820750430381</v>
+        <v>12.94820750430382</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10.31246864985436</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.4522321967143632</v>
+        <v>0.8849680527329736</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9198477287558413</v>
+        <v>-0.4161716583377278</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.177746754117637</v>
+        <v>7.794664699363285</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.784911674442833</v>
+        <v>5.74949427248997</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.6731501100688932</v>
+        <v>0.5806564620117407</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.35935420693123</v>
+        <v>14.10558071741829</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.552484485040149</v>
+        <v>4.599830027428208</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.223602968914036</v>
+        <v>1.469032631979746</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.29051404823693</v>
+        <v>12.80687030417915</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.432674985087367</v>
+        <v>9.374745748099015</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.969864249339627</v>
+        <v>8.174999760306722</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.65233514776002</v>
+        <v>17.3902038679527</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.74726677670828</v>
+        <v>15.16548562261187</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.726886346563457</v>
+        <v>9.586058305208017</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.54348508571896</v>
+        <v>22.76642074588629</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.20694804863982</v>
+        <v>10.92412510054222</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.663315879136041</v>
+        <v>7.634380163107209</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.95014606139622</v>
+        <v>19.07373016420912</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.2590150422985995</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.8839136997732202</v>
+        <v>0.8839136997732205</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5857024524525382</v>
@@ -2053,7 +2053,7 @@
         <v>0.2841974078477055</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.973941943431068</v>
+        <v>0.9739419434310683</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.02582740204384084</v>
+        <v>0.05242024612722439</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.052065285400042</v>
+        <v>-0.03041408594744611</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4803308953177638</v>
+        <v>0.475353473897612</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2988840494099285</v>
+        <v>0.3018012200122189</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03609271409955732</v>
+        <v>0.02027121561130906</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6618876356973464</v>
+        <v>0.6978974042043157</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2556171250879518</v>
+        <v>0.2570054560516518</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.07601113320617087</v>
+        <v>0.08401803774442648</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6877176956763245</v>
+        <v>0.7096884219939318</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7656942957143491</v>
+        <v>0.7602002086219251</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6372077310402984</v>
+        <v>0.6635325662645688</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.437702467322507</v>
+        <v>1.398806226772677</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9687292987164794</v>
+        <v>1.004678107853163</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6176903836368038</v>
+        <v>0.6096572303124917</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.471403846916298</v>
+        <v>1.514441083771997</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7720869063351824</v>
+        <v>0.751691511373064</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5263976468693083</v>
+        <v>0.5332401560454988</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.304780386819442</v>
+        <v>1.306621665234521</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.633754906003073</v>
+        <v>-7.434637379594483</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-25.1487784660499</v>
+        <v>-25.43293682129733</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-29.27279754462085</v>
+        <v>-29.62158384210126</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-11.799149208791</v>
+        <v>-11.59089209556933</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-34.02157455023092</v>
+        <v>-34.12315800673858</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-39.08347451451101</v>
+        <v>-39.59302487465361</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.583908417051578</v>
+        <v>-8.522360540077342</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-28.92880684070707</v>
+        <v>-28.98748548010407</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-33.6109222430798</v>
+        <v>-33.58391660940038</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.460767106540356</v>
+        <v>1.707815873234978</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-17.85879240516812</v>
+        <v>-17.81568923433925</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-22.51490195149946</v>
+        <v>-22.56088064446403</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-1.977654212895349</v>
+        <v>-1.729919609976249</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-26.11558812571698</v>
+        <v>-25.95409654597395</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-31.6690440851633</v>
+        <v>-31.77196076340142</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.640931153690827</v>
+        <v>-1.838993453387643</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-23.1152410677157</v>
+        <v>-23.30900207382522</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-28.32977442810697</v>
+        <v>-28.24277295323837</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.254618131247756</v>
+        <v>-0.2424241631556654</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8326039161951169</v>
+        <v>-0.8339646121417901</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.958547122018897</v>
+        <v>-0.9613922927513974</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2837628222316871</v>
+        <v>-0.2761152541407444</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8160894366012991</v>
+        <v>-0.8169647198477231</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.9314162624612445</v>
+        <v>-0.9327464656858178</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2383880844223008</v>
+        <v>-0.2409789863746234</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8114531666981057</v>
+        <v>-0.8069117549228476</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.9346576424361874</v>
+        <v>-0.9350511889195552</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.05592168148477227</v>
+        <v>0.06779030199816323</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.6935604690205271</v>
+        <v>-0.6875079614846906</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.8837728065379939</v>
+        <v>-0.8821737444671506</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.05383456728719062</v>
+        <v>-0.04695266208400887</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.7002120001896245</v>
+        <v>-0.6969358509427849</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.8675731565457906</v>
+        <v>-0.8677930407508089</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.05086925379149568</v>
+        <v>-0.05661679535133816</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.7218955191441204</v>
+        <v>-0.7202181835663648</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.8868893155760889</v>
+        <v>-0.8871650734914646</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-5.239783882023633</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-8.605650332519238</v>
+        <v>-8.605650332519236</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.143695038507282</v>
@@ -2367,7 +2367,7 @@
         <v>-7.899630634738338</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-10.76377407342419</v>
+        <v>-10.7637740734242</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.055146431753119</v>
@@ -2376,7 +2376,7 @@
         <v>-6.580875152014934</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-9.671843462853328</v>
+        <v>-9.67184346285333</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.1907652989217352</v>
+        <v>-0.1813677613413658</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-7.046763902112374</v>
+        <v>-7.350248310143476</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-10.56238757252236</v>
+        <v>-10.84955716914548</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.06024259636609489</v>
+        <v>-0.1505200766474334</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-9.975206331345602</v>
+        <v>-10.00486907565151</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-12.94694011337094</v>
+        <v>-12.81125183458487</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.4185382678529517</v>
+        <v>0.5101447590782072</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-8.04531705781347</v>
+        <v>-8.060103849733141</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-11.07032498464319</v>
+        <v>-11.03392168134888</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.070202441957654</v>
+        <v>3.776421256318833</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-3.172833815235784</v>
+        <v>-3.211945274047613</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-6.610392034599736</v>
+        <v>-6.58663838470214</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.386860129940164</v>
+        <v>4.396962193530018</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-5.639980130540249</v>
+        <v>-5.701017916555434</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-8.956229171600819</v>
+        <v>-8.941113279477147</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.473194847356608</v>
+        <v>3.560074723462497</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-5.135176157844967</v>
+        <v>-5.183448480260111</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-8.283342519777188</v>
+        <v>-8.330145055819914</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.2239181500534156</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.3677558742594678</v>
+        <v>-0.3677558742594677</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.06942464991713598</v>
@@ -2472,7 +2472,7 @@
         <v>-0.2558335404243317</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.3485902767937395</v>
+        <v>-0.3485902767937396</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.07555348922502036</v>
@@ -2481,7 +2481,7 @@
         <v>-0.241933164570092</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.3555666445789082</v>
+        <v>-0.3555666445789083</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.008104090387582606</v>
+        <v>-0.007653809561603548</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2908033279172575</v>
+        <v>-0.3015856691156893</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.4328184173305876</v>
+        <v>-0.4399760393167013</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.002217375695325636</v>
+        <v>-0.005184462919379264</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3138319308360457</v>
+        <v>-0.3121680177456845</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3998881674936871</v>
+        <v>-0.4022922861674542</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01514292247010616</v>
+        <v>0.01826599622147599</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2848657320324597</v>
+        <v>-0.2898901589079621</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3944843544627303</v>
+        <v>-0.3946828895311053</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1791222426129988</v>
+        <v>0.1705493250841539</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1434566779680402</v>
+        <v>-0.1426697800720368</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.2935368690641679</v>
+        <v>-0.2935896028618966</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1475527122746902</v>
+        <v>0.1471053879101016</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.192887854767532</v>
+        <v>-0.193441787963216</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.2980275260834921</v>
+        <v>-0.2996307404139243</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1314324712744034</v>
+        <v>0.1356779742364959</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1916753838221222</v>
+        <v>-0.1955810954190857</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.3130374802176336</v>
+        <v>-0.3123449798004228</v>
       </c>
     </row>
     <row r="58">
